--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_18-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_18-49.xlsx
@@ -98,6 +98,12 @@
     <t>BRONCHOTEROL SYRUP 120 ML</t>
   </si>
   <si>
+    <t>BUDEXAN 1 MG/2ML 20 SUSP. AMP. FOR INH</t>
+  </si>
+  <si>
+    <t>0:18</t>
+  </si>
+  <si>
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
   </si>
   <si>
     <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
     <t>L-CARNITINE PLUS 20 F.C. TAB</t>
@@ -1463,17 +1472,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>49</v>
+        <v>26.449999999999999</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1481,7 +1490,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1495,11 +1504,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>550</v>
+        <v>49</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1507,7 +1516,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1515,13 +1524,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1533,7 +1542,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1541,17 +1550,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1567,17 +1576,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1585,7 +1594,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1599,7 +1608,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1611,7 +1620,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1619,17 +1628,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>444</v>
+        <v>102</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1637,7 +1646,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1645,17 +1654,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>85.5</v>
+        <v>444</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1663,7 +1672,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1677,7 +1686,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>150</v>
+        <v>85.5</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1689,7 +1698,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1697,17 +1706,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1715,7 +1724,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1723,17 +1732,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1741,7 +1750,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1749,17 +1758,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1775,17 +1784,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1793,7 +1802,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1801,17 +1810,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1819,7 +1828,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1827,17 +1836,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1845,7 +1854,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1853,17 +1862,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1871,7 +1880,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1879,17 +1888,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1.3300000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1905,17 +1914,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>1.3300000000000001</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1923,7 +1932,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1931,13 +1940,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1949,7 +1958,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1957,13 +1966,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1975,7 +1984,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1983,17 +1992,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2001,7 +2010,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2009,17 +2018,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>2</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2027,7 +2036,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2035,17 +2044,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2053,7 +2062,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2061,13 +2070,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2079,7 +2088,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2087,13 +2096,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2105,7 +2114,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2119,11 +2128,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2131,7 +2140,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2139,17 +2148,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2165,17 +2174,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2183,7 +2192,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2191,13 +2200,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2209,7 +2218,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2217,13 +2226,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2243,13 +2252,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2261,7 +2270,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2269,17 +2278,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.040000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2295,17 +2304,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2313,7 +2322,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2321,13 +2330,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2339,7 +2348,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2347,13 +2356,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2365,7 +2374,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2383,7 +2392,7 @@
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2391,7 +2400,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2399,17 +2408,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2417,7 +2426,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2425,13 +2434,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2443,7 +2452,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2451,17 +2460,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>480</v>
+        <v>65</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2469,7 +2478,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2477,17 +2486,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2503,17 +2512,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>34</v>
+        <v>480</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2529,17 +2538,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>279</v>
+        <v>60</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2547,7 +2556,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2555,13 +2564,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2573,7 +2582,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2581,13 +2590,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>136.5</v>
+        <v>279</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2599,7 +2608,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2607,13 +2616,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>380</v>
+        <v>67</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2625,7 +2634,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2633,13 +2642,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20</v>
+        <v>136.5</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2651,7 +2660,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2659,13 +2668,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2677,7 +2686,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2685,13 +2694,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2717,7 +2726,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2737,13 +2746,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2755,7 +2764,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2763,13 +2772,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2781,7 +2790,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2789,13 +2798,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2807,7 +2816,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2815,13 +2824,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2833,7 +2842,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2841,17 +2850,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2867,13 +2876,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2893,17 +2902,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2911,7 +2920,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2919,17 +2928,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>14.1</v>
+        <v>125</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2945,13 +2954,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -2971,17 +2980,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>33.600000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2989,7 +2998,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3003,7 +3012,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3015,7 +3024,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3023,13 +3032,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>39</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3049,17 +3058,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3067,7 +3076,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3075,17 +3084,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3101,17 +3110,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3119,7 +3128,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3127,17 +3136,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3145,7 +3154,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3153,17 +3162,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3171,7 +3180,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3179,13 +3188,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3197,7 +3206,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3205,13 +3214,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3223,7 +3232,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3231,17 +3240,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3249,7 +3258,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3263,11 +3272,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3275,7 +3284,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3283,13 +3292,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3301,7 +3310,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3309,17 +3318,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3327,7 +3336,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3335,17 +3344,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3353,7 +3362,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3361,17 +3370,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3387,17 +3396,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3405,7 +3414,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3413,17 +3422,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3439,17 +3448,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3457,7 +3466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3471,7 +3480,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3483,7 +3492,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3491,13 +3500,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>23.5</v>
+        <v>245</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3517,13 +3526,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
@@ -3535,7 +3544,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3543,13 +3552,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>120</v>
+        <v>23.5</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3575,11 +3584,11 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3595,17 +3604,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3613,7 +3622,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3621,17 +3630,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3639,7 +3648,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3647,17 +3656,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3665,7 +3674,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3673,17 +3682,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3691,7 +3700,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3699,13 +3708,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3725,13 +3734,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3743,7 +3752,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3751,51 +3760,103 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="26.25" customHeight="1">
-      <c r="K110" s="11">
-        <v>10097.700000000001</v>
-      </c>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="12">
-        <v>139</v>
-      </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c t="s" r="F111" s="13">
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>107</v>
+      </c>
+      <c t="s" r="B110" s="7">
         <v>140</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="14"/>
-      <c t="s" r="I111" s="15">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c t="s" r="H110" s="8">
+        <v>127</v>
+      </c>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="9">
+        <v>20</v>
+      </c>
+      <c r="M110" s="9"/>
+      <c r="N110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="24.75" customHeight="1">
+      <c r="A111" s="6">
+        <v>108</v>
+      </c>
+      <c t="s" r="B111" s="7">
         <v>141</v>
       </c>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c t="s" r="H111" s="8">
+        <v>11</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9">
+        <v>300</v>
+      </c>
+      <c r="M111" s="9"/>
+      <c r="N111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="26.25" customHeight="1">
+      <c r="K112" s="11">
+        <v>10189.15</v>
+      </c>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="12">
+        <v>142</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c t="s" r="F113" s="13">
+        <v>143</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c t="s" r="I113" s="15">
+        <v>144</v>
+      </c>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="329">
+  <mergeCells count="335">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4121,10 +4182,16 @@
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="I111:N111"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="K112:N112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="I113:N113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
